--- a/ProjectISM/dataset/categories.xlsx
+++ b/ProjectISM/dataset/categories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Category Name</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Trứng gà, vịt</t>
+  </si>
+  <si>
+    <t>Sữa &amp; Sản phẩm từ sữa</t>
   </si>
   <si>
     <t>Khác</t>
@@ -389,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,6 +428,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectISM/dataset/categories.xlsx
+++ b/ProjectISM/dataset/categories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Category Name</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Thực phẩm hữu cơ</t>
-  </si>
-  <si>
-    <t>Trứng gà, vịt</t>
   </si>
   <si>
     <t>Sữa &amp; Sản phẩm từ sữa</t>
@@ -392,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,11 +425,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectISM/dataset/categories.xlsx
+++ b/ProjectISM/dataset/categories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Category Name</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>Thực phẩm hữu cơ</t>
+  </si>
+  <si>
+    <t>Nông sản địa phương</t>
+  </si>
+  <si>
+    <t>Trứng gà, vịt</t>
   </si>
   <si>
     <t>Sữa &amp; Sản phẩm từ sữa</t>
@@ -389,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,6 +431,16 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectISM/dataset/categories.xlsx
+++ b/ProjectISM/dataset/categories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Category Name</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Nông sản địa phương</t>
+  </si>
+  <si>
+    <t>Thảo mộc &amp; Gia vị</t>
   </si>
   <si>
     <t>Trứng gà, vịt</t>
@@ -395,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,6 +444,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
